--- a/result/correlation.xlsx
+++ b/result/correlation.xlsx
@@ -14,45 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13">
-  <si>
-    <t>nodes_tr</t>
-  </si>
-  <si>
-    <t>nodes_bc</t>
-  </si>
-  <si>
-    <t>nodes_cnc</t>
-  </si>
-  <si>
-    <t>nodes_dc</t>
-  </si>
-  <si>
-    <t>nodes_ec</t>
-  </si>
-  <si>
-    <t>nodes_pr</t>
-  </si>
-  <si>
-    <t>nodes_TC</t>
-  </si>
-  <si>
-    <t>nodes_PI</t>
-  </si>
-  <si>
-    <t>nodes_CC</t>
-  </si>
-  <si>
-    <t>NS Network</t>
-  </si>
-  <si>
-    <t>KC Network</t>
-  </si>
-  <si>
-    <t>Email Network</t>
-  </si>
-  <si>
-    <t>USAir Network</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+  <si>
+    <t>Ranking correlation</t>
+  </si>
+  <si>
+    <t>Networks</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>PR</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>PI</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KC </t>
+  </si>
+  <si>
+    <t>USAir</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>NS</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,24 +87,55 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,20 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -134,39 +157,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,6 +187,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -187,22 +233,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -211,15 +241,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,37 +256,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,79 +418,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,66 +436,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -429,16 +451,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,13 +489,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,9 +545,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,23 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,7 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,34 +585,34 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,105 +621,117 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1004,15 +1053,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:J13"/>
+  <dimension ref="B4:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.4285714285714" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.8571428571429" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.7142857142857" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.8571428571429" style="1" customWidth="1"/>
@@ -1022,140 +1071,184 @@
     <col min="8" max="8" width="13" style="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" customWidth="1"/>
     <col min="10" max="10" width="15.2857142857143" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="11" max="11" width="12" style="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
-      <c r="B3" s="2" t="s">
+    <row r="4" ht="23.25" spans="4:9">
+      <c r="D4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1">
+    <row r="6" spans="2:11">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.9789</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.9512</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.9259</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.8418</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.9017</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.8187</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.8103</v>
+      </c>
+      <c r="J6" s="4">
+        <v>-0.7678</v>
+      </c>
+      <c r="K6" s="4">
+        <v>-0.6943</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.9441</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.8788</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.9976</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.9735</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.9574</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.8199</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.9328</v>
+      </c>
+      <c r="J7" s="5">
+        <v>-0.9955</v>
+      </c>
+      <c r="K7" s="5">
+        <v>-0.8098</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.8026</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.9293</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.9826</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.5862</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.6587</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.6268</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.8745</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-0.8127</v>
+      </c>
+      <c r="K8" s="4">
+        <v>-0.8933</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.9433</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D9" s="4">
         <v>0.7285</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E9" s="4">
         <v>0.9038</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F9" s="4">
         <v>0.8315</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G9" s="3">
         <v>0.9433</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H9" s="3">
         <v>0.7555</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I9" s="3">
         <v>0.9433</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J9" s="4">
         <v>-0.7681</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K9" s="4">
         <v>-0.8962</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.9789</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.9512</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.9259</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.8418</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.9017</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.8187</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.8103</v>
-      </c>
-      <c r="I7" s="1">
-        <v>-0.7678</v>
-      </c>
-      <c r="J7" s="1">
-        <v>-0.6943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.8026</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.9293</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.9826</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.5862</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.6587</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.6268</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.8745</v>
-      </c>
-      <c r="I10" s="1">
-        <v>-0.8127</v>
-      </c>
-      <c r="J10" s="1">
-        <v>-0.8933</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:I4"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
